--- a/calculos.xlsx
+++ b/calculos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kpm_1\Documents\GitHub\Proyecto_IA-Grupo5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rodri\Desktop\Proyecto_IA-Grupo4-Avance3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35E4C831-41DA-4DE1-ADD8-18F934EBA2A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F820FCF-EA5D-424D-B314-1E2F60E277E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21705" yWindow="4335" windowWidth="21600" windowHeight="11385" xr2:uid="{F16437FB-8B19-4661-A1F7-1D34F78DABC4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F16437FB-8B19-4661-A1F7-1D34F78DABC4}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>kernel</t>
   </si>
@@ -79,21 +79,6 @@
   </si>
   <si>
     <t>CT08</t>
-  </si>
-  <si>
-    <t>CT09</t>
-  </si>
-  <si>
-    <t>CT10</t>
-  </si>
-  <si>
-    <t>CT11</t>
-  </si>
-  <si>
-    <t>CT12</t>
-  </si>
-  <si>
-    <t>CT13</t>
   </si>
   <si>
     <t>dimImg</t>
@@ -157,19 +142,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.249977111117893"/>
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -186,7 +171,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -204,21 +189,25 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -533,94 +522,103 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D800E5B0-0863-4E0D-AD68-03BCAFCD14AA}">
-  <dimension ref="B1:L21"/>
+  <dimension ref="B1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="7.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="7.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" style="9"/>
-    <col min="6" max="7" width="7.7109375" style="4" customWidth="1"/>
-    <col min="8" max="8" width="7.7109375" style="4"/>
-    <col min="9" max="11" width="7.7109375" style="5"/>
-    <col min="12" max="12" width="13.42578125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="7.6640625" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" style="11"/>
+    <col min="6" max="7" width="7.6640625" style="10" customWidth="1"/>
+    <col min="8" max="11" width="7.6640625" style="10"/>
+    <col min="12" max="12" width="13.44140625" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="3"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="9"/>
+    </row>
+    <row r="4" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="1"/>
       <c r="D4" s="3"/>
-      <c r="E4" s="10"/>
+      <c r="E4" s="8"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
-      <c r="L4" s="11"/>
-    </row>
-    <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L4" s="9"/>
+    </row>
+    <row r="5" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="1"/>
       <c r="D5" s="3"/>
-      <c r="E5" s="10"/>
+      <c r="E5" s="8"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
-      <c r="L5" s="11"/>
-    </row>
-    <row r="6" spans="2:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L5" s="9"/>
+    </row>
+    <row r="6" spans="2:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="3"/>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="8" t="s">
+      <c r="E6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G6" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="I6" s="8" t="s">
+      <c r="G6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="I6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="J6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="K6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L6" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="4">
         <v>200</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="7">
         <v>1</v>
       </c>
       <c r="F7" s="4">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G7" s="4">
         <v>1</v>
@@ -637,32 +635,32 @@
       </c>
       <c r="K7" s="5">
         <f>F7-H7-1</f>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="L7" s="6">
         <f>I7*(E7-1)+E7+2*K7-F7+1</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="4">
         <v>1024</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="7">
         <f>L7</f>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F8" s="4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G8" s="4">
         <v>2</v>
       </c>
       <c r="H8" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" s="5">
         <f t="shared" ref="I8:I18" si="0">G8-1</f>
@@ -673,63 +671,64 @@
       </c>
       <c r="K8" s="5">
         <f>F8-H8-1</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L8" s="6">
         <f>I8*(E8-1)+E8+2*K8-F8+1</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="9">
+      <c r="D9" s="4"/>
+      <c r="E9" s="7">
         <f t="shared" ref="E9:E18" si="1">L8</f>
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F9" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G9" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H9" s="4">
         <v>1</v>
       </c>
       <c r="I9" s="5">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J9" s="5">
         <v>1</v>
       </c>
       <c r="K9" s="5">
         <f t="shared" ref="K9:K18" si="2">F9-H9-1</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9" s="6">
-        <f t="shared" ref="L9:L18" si="3">I9*(E9-1)+E9+2*K9-F9+1</f>
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" ref="L9:L17" si="3">I9*(E9-1)+E9+2*K9-F9+1</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="4"/>
-      <c r="E10" s="9">
+      <c r="E10" s="7">
         <f t="shared" si="1"/>
-        <v>53</v>
+        <v>4</v>
       </c>
       <c r="F10" s="4">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G10" s="4">
         <v>2</v>
       </c>
       <c r="H10" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" s="5">
         <f t="shared" si="0"/>
@@ -740,29 +739,30 @@
       </c>
       <c r="K10" s="5">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L10" s="6">
         <f t="shared" si="3"/>
-        <v>108</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="9">
+      <c r="D11" s="4"/>
+      <c r="E11" s="7">
         <f t="shared" si="1"/>
-        <v>108</v>
+        <v>8</v>
       </c>
       <c r="F11" s="4">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G11" s="4">
         <v>2</v>
       </c>
       <c r="H11" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" s="5">
         <f t="shared" si="0"/>
@@ -773,30 +773,30 @@
       </c>
       <c r="K11" s="5">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L11" s="6">
         <f t="shared" si="3"/>
-        <v>218</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="4"/>
-      <c r="E12" s="9">
+      <c r="E12" s="7">
         <f t="shared" si="1"/>
-        <v>218</v>
+        <v>16</v>
       </c>
       <c r="F12" s="4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G12" s="4">
         <v>2</v>
       </c>
       <c r="H12" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" s="5">
         <f t="shared" si="0"/>
@@ -807,29 +807,30 @@
       </c>
       <c r="K12" s="5">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L12" s="6">
         <f t="shared" si="3"/>
-        <v>438</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="9">
+      <c r="D13" s="4"/>
+      <c r="E13" s="7">
         <f t="shared" si="1"/>
-        <v>438</v>
+        <v>32</v>
       </c>
       <c r="F13" s="4">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G13" s="4">
         <v>2</v>
       </c>
       <c r="H13" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" s="5">
         <f t="shared" si="0"/>
@@ -840,29 +841,30 @@
       </c>
       <c r="K13" s="5">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L13" s="6">
         <f t="shared" si="3"/>
-        <v>878</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="9">
+      <c r="D14" s="4"/>
+      <c r="E14" s="7">
         <f t="shared" si="1"/>
-        <v>878</v>
+        <v>64</v>
       </c>
       <c r="F14" s="4">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G14" s="4">
         <v>2</v>
       </c>
       <c r="H14" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" s="5">
         <f t="shared" si="0"/>
@@ -873,152 +875,115 @@
       </c>
       <c r="K14" s="5">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L14" s="6">
         <f t="shared" si="3"/>
-        <v>1758</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="9">
-        <f t="shared" si="1"/>
-        <v>1758</v>
-      </c>
-      <c r="F15" s="4">
-        <v>8</v>
-      </c>
-      <c r="G15" s="4">
-        <v>2</v>
-      </c>
-      <c r="H15" s="4">
-        <v>2</v>
-      </c>
-      <c r="I15" s="5">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J15" s="5">
-        <v>1</v>
-      </c>
-      <c r="K15" s="5">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="L15" s="6">
-        <f t="shared" si="3"/>
-        <v>3518</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" s="9">
-        <f t="shared" si="1"/>
-        <v>3518</v>
-      </c>
-      <c r="F16" s="4">
-        <v>8</v>
-      </c>
-      <c r="G16" s="4">
-        <v>2</v>
-      </c>
-      <c r="H16" s="4">
-        <v>2</v>
-      </c>
-      <c r="I16" s="5">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J16" s="5">
-        <v>1</v>
-      </c>
-      <c r="K16" s="5">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="L16" s="6">
-        <f t="shared" si="3"/>
-        <v>7038</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" s="9">
-        <f t="shared" si="1"/>
-        <v>7038</v>
-      </c>
-      <c r="F17" s="4">
-        <v>8</v>
-      </c>
-      <c r="G17" s="4">
-        <v>2</v>
-      </c>
-      <c r="H17" s="4">
-        <v>2</v>
-      </c>
-      <c r="I17" s="5">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J17" s="5">
-        <v>1</v>
-      </c>
-      <c r="K17" s="5">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="L17" s="6">
-        <f t="shared" si="3"/>
-        <v>14078</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" s="9">
-        <f t="shared" si="1"/>
-        <v>14078</v>
-      </c>
-      <c r="F18" s="4">
-        <v>8</v>
-      </c>
-      <c r="G18" s="4">
-        <v>2</v>
-      </c>
-      <c r="H18" s="4">
-        <v>2</v>
-      </c>
-      <c r="I18" s="5">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J18" s="5">
-        <v>1</v>
-      </c>
-      <c r="K18" s="5">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="L18" s="6">
-        <f t="shared" si="3"/>
-        <v>28158</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+        <v>128</v>
+      </c>
+      <c r="M14" s="13">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D15" s="3"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="9"/>
+    </row>
+    <row r="16" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D16" s="3"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="9"/>
+    </row>
+    <row r="17" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D17" s="3"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="9"/>
+    </row>
+    <row r="18" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D18" s="3"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="9"/>
+    </row>
+    <row r="19" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D19" s="3"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="9"/>
+    </row>
+    <row r="20" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D20" s="3"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="9"/>
+    </row>
+    <row r="21" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D21" s="3"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="9"/>
+    </row>
+    <row r="22" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D22" s="3"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="9"/>
+    </row>
+    <row r="23" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D23" s="3"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="9"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/calculos.xlsx
+++ b/calculos.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kpm_1\Documents\GitHub\Proyecto_IA-Grupo5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35E4C831-41DA-4DE1-ADD8-18F934EBA2A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6B50D5E-0403-4A6B-8D25-39B43C824E2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21705" yWindow="4335" windowWidth="21600" windowHeight="11385" xr2:uid="{F16437FB-8B19-4661-A1F7-1D34F78DABC4}"/>
+    <workbookView xWindow="21450" yWindow="5415" windowWidth="14400" windowHeight="15345" activeTab="1" xr2:uid="{F16437FB-8B19-4661-A1F7-1D34F78DABC4}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>kernel</t>
   </si>
@@ -45,9 +46,6 @@
     <t>padd</t>
   </si>
   <si>
-    <t>ch</t>
-  </si>
-  <si>
     <t>zero</t>
   </si>
   <si>
@@ -81,32 +79,35 @@
     <t>CT08</t>
   </si>
   <si>
-    <t>CT09</t>
-  </si>
-  <si>
-    <t>CT10</t>
-  </si>
-  <si>
-    <t>CT11</t>
-  </si>
-  <si>
-    <t>CT12</t>
-  </si>
-  <si>
-    <t>CT13</t>
-  </si>
-  <si>
     <t>dimImg</t>
   </si>
   <si>
     <t>DIM_Salida</t>
+  </si>
+  <si>
+    <t>ch_in</t>
+  </si>
+  <si>
+    <t>C01</t>
+  </si>
+  <si>
+    <t>C02</t>
+  </si>
+  <si>
+    <t>C03</t>
+  </si>
+  <si>
+    <t>C04</t>
+  </si>
+  <si>
+    <t>C05</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,8 +136,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -173,8 +182,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -182,12 +203,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -219,6 +256,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -533,494 +573,656 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D800E5B0-0863-4E0D-AD68-03BCAFCD14AA}">
-  <dimension ref="B1:L21"/>
+  <dimension ref="B1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.7109375" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="7.7109375" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" style="9"/>
-    <col min="6" max="7" width="7.7109375" style="4" customWidth="1"/>
-    <col min="8" max="8" width="7.7109375" style="4"/>
-    <col min="9" max="11" width="7.7109375" style="5"/>
-    <col min="12" max="12" width="13.42578125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" style="10"/>
+    <col min="6" max="7" width="7.7109375" style="5" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" style="5"/>
+    <col min="9" max="11" width="7.7109375" style="6"/>
+    <col min="12" max="12" width="13.42578125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="1"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="11"/>
-    </row>
-    <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="1"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="11"/>
-    </row>
-    <row r="6" spans="2:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="3"/>
-      <c r="D6" s="8" t="s">
+    <row r="1" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="2"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="12"/>
+    </row>
+    <row r="5" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="2"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="12"/>
+    </row>
+    <row r="6" spans="2:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="4"/>
+      <c r="D6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="I6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="8" t="s">
+      <c r="J6" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>100</v>
+      </c>
+      <c r="D7" s="5">
+        <v>200</v>
+      </c>
+      <c r="E7" s="10">
+        <v>1</v>
+      </c>
+      <c r="F7" s="5">
+        <v>2</v>
+      </c>
+      <c r="G7" s="5">
+        <v>1</v>
+      </c>
+      <c r="H7" s="5">
         <v>0</v>
       </c>
-      <c r="G6" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="4">
-        <v>200</v>
-      </c>
-      <c r="E7" s="9">
-        <v>1</v>
-      </c>
-      <c r="F7" s="4">
-        <v>8</v>
-      </c>
-      <c r="G7" s="4">
-        <v>1</v>
-      </c>
-      <c r="H7" s="4">
-        <v>0</v>
-      </c>
-      <c r="I7" s="5">
+      <c r="I7" s="6">
         <f>G7-1</f>
         <v>0</v>
       </c>
-      <c r="J7" s="5">
-        <v>1</v>
-      </c>
-      <c r="K7" s="5">
+      <c r="J7" s="6">
+        <v>1</v>
+      </c>
+      <c r="K7" s="6">
         <f>F7-H7-1</f>
+        <v>1</v>
+      </c>
+      <c r="L7" s="7">
+        <f>I7*(E7-1)+E7+2*K7-F7+1</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L7" s="6">
-        <f>I7*(E7-1)+E7+2*K7-F7+1</f>
+      <c r="C8" s="2">
+        <v>256</v>
+      </c>
+      <c r="D8" s="5">
+        <v>1024</v>
+      </c>
+      <c r="E8" s="10">
+        <f>L7</f>
+        <v>2</v>
+      </c>
+      <c r="F8" s="5">
+        <v>4</v>
+      </c>
+      <c r="G8" s="5">
+        <v>2</v>
+      </c>
+      <c r="H8" s="5">
+        <v>1</v>
+      </c>
+      <c r="I8" s="6">
+        <f t="shared" ref="I8:I18" si="0">G8-1</f>
+        <v>1</v>
+      </c>
+      <c r="J8" s="6">
+        <v>1</v>
+      </c>
+      <c r="K8" s="6">
+        <f>F8-H8-1</f>
+        <v>2</v>
+      </c>
+      <c r="L8" s="7">
+        <f>I8*(E8-1)+E8+2*K8-F8+1</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
+      <c r="C9">
+        <v>128</v>
+      </c>
+      <c r="D9" s="5">
+        <v>512</v>
+      </c>
+      <c r="E9" s="10">
+        <f t="shared" ref="E9:E18" si="1">L8</f>
+        <v>4</v>
+      </c>
+      <c r="F9" s="5">
+        <v>3</v>
+      </c>
+      <c r="G9" s="5">
+        <v>1</v>
+      </c>
+      <c r="H9" s="5">
+        <v>1</v>
+      </c>
+      <c r="I9" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="6">
+        <v>1</v>
+      </c>
+      <c r="K9" s="6">
+        <f t="shared" ref="K9:K18" si="2">F9-H9-1</f>
+        <v>1</v>
+      </c>
+      <c r="L9" s="7">
+        <f t="shared" ref="L9:L18" si="3">I9*(E9-1)+E9+2*K9-F9+1</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="2">
+        <v>64</v>
+      </c>
+      <c r="D10" s="5">
+        <v>256</v>
+      </c>
+      <c r="E10" s="10">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F10" s="5">
+        <v>2</v>
+      </c>
+      <c r="G10" s="5">
+        <v>2</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0</v>
+      </c>
+      <c r="I10" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J10" s="6">
+        <v>1</v>
+      </c>
+      <c r="K10" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L10" s="7">
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="D8" s="4">
-        <v>1024</v>
-      </c>
-      <c r="E8" s="9">
-        <f>L7</f>
+    </row>
+    <row r="11" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="2">
+        <v>3</v>
+      </c>
+      <c r="D11" s="5">
+        <v>128</v>
+      </c>
+      <c r="E11" s="10">
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="F8" s="4">
-        <v>8</v>
-      </c>
-      <c r="G8" s="4">
-        <v>2</v>
-      </c>
-      <c r="H8" s="4">
-        <v>2</v>
-      </c>
-      <c r="I8" s="5">
-        <f t="shared" ref="I8:I18" si="0">G8-1</f>
-        <v>1</v>
-      </c>
-      <c r="J8" s="5">
-        <v>1</v>
-      </c>
-      <c r="K8" s="5">
-        <f>F8-H8-1</f>
-        <v>5</v>
-      </c>
-      <c r="L8" s="6">
-        <f>I8*(E8-1)+E8+2*K8-F8+1</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="9">
-        <f t="shared" ref="E9:E18" si="1">L8</f>
-        <v>18</v>
-      </c>
-      <c r="F9" s="4">
+      <c r="F11" s="5">
+        <v>2</v>
+      </c>
+      <c r="G11" s="5">
+        <v>2</v>
+      </c>
+      <c r="H11" s="5">
+        <v>0</v>
+      </c>
+      <c r="I11" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J11" s="6">
+        <v>1</v>
+      </c>
+      <c r="K11" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L11" s="7">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="5">
+        <v>128</v>
+      </c>
+      <c r="E12" s="10">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="F12" s="5">
         <v>4</v>
       </c>
-      <c r="G9" s="4">
-        <v>3</v>
-      </c>
-      <c r="H9" s="4">
-        <v>1</v>
-      </c>
-      <c r="I9" s="5">
+      <c r="G12" s="5">
+        <v>2</v>
+      </c>
+      <c r="H12" s="5">
+        <v>1</v>
+      </c>
+      <c r="I12" s="6">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="J9" s="5">
-        <v>1</v>
-      </c>
-      <c r="K9" s="5">
-        <f t="shared" ref="K9:K18" si="2">F9-H9-1</f>
-        <v>2</v>
-      </c>
-      <c r="L9" s="6">
-        <f t="shared" ref="L9:L18" si="3">I9*(E9-1)+E9+2*K9-F9+1</f>
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="9">
+        <v>1</v>
+      </c>
+      <c r="J12" s="6">
+        <v>1</v>
+      </c>
+      <c r="K12" s="6">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="L12" s="7">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="5">
+        <v>64</v>
+      </c>
+      <c r="E13" s="10">
         <f t="shared" si="1"/>
-        <v>53</v>
-      </c>
-      <c r="F10" s="4">
-        <v>8</v>
-      </c>
-      <c r="G10" s="4">
-        <v>2</v>
-      </c>
-      <c r="H10" s="4">
-        <v>2</v>
-      </c>
-      <c r="I10" s="5">
+        <v>32</v>
+      </c>
+      <c r="F13" s="5">
+        <v>2</v>
+      </c>
+      <c r="G13" s="5">
+        <v>2</v>
+      </c>
+      <c r="H13" s="5">
+        <v>0</v>
+      </c>
+      <c r="I13" s="6">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J10" s="5">
-        <v>1</v>
-      </c>
-      <c r="K10" s="5">
+      <c r="J13" s="6">
+        <v>1</v>
+      </c>
+      <c r="K13" s="6">
         <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="L10" s="6">
+        <v>1</v>
+      </c>
+      <c r="L13" s="7">
         <f t="shared" si="3"/>
-        <v>108</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="9">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="5">
+        <v>32</v>
+      </c>
+      <c r="E14" s="10">
         <f t="shared" si="1"/>
-        <v>108</v>
-      </c>
-      <c r="F11" s="4">
-        <v>8</v>
-      </c>
-      <c r="G11" s="4">
-        <v>2</v>
-      </c>
-      <c r="H11" s="4">
-        <v>2</v>
-      </c>
-      <c r="I11" s="5">
+        <v>64</v>
+      </c>
+      <c r="F14" s="5">
+        <v>2</v>
+      </c>
+      <c r="G14" s="5">
+        <v>2</v>
+      </c>
+      <c r="H14" s="5">
+        <v>0</v>
+      </c>
+      <c r="I14" s="6">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J11" s="5">
-        <v>1</v>
-      </c>
-      <c r="K11" s="5">
+      <c r="J14" s="6">
+        <v>1</v>
+      </c>
+      <c r="K14" s="6">
         <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="L11" s="6">
+        <v>1</v>
+      </c>
+      <c r="L14" s="7">
         <f t="shared" si="3"/>
-        <v>218</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="9">
-        <f t="shared" si="1"/>
-        <v>218</v>
-      </c>
-      <c r="F12" s="4">
-        <v>8</v>
-      </c>
-      <c r="G12" s="4">
-        <v>2</v>
-      </c>
-      <c r="H12" s="4">
-        <v>2</v>
-      </c>
-      <c r="I12" s="5">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J12" s="5">
-        <v>1</v>
-      </c>
-      <c r="K12" s="5">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="L12" s="6">
-        <f t="shared" si="3"/>
-        <v>438</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="9">
-        <f t="shared" si="1"/>
-        <v>438</v>
-      </c>
-      <c r="F13" s="4">
-        <v>8</v>
-      </c>
-      <c r="G13" s="4">
-        <v>2</v>
-      </c>
-      <c r="H13" s="4">
-        <v>2</v>
-      </c>
-      <c r="I13" s="5">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J13" s="5">
-        <v>1</v>
-      </c>
-      <c r="K13" s="5">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="L13" s="6">
-        <f t="shared" si="3"/>
-        <v>878</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="9">
-        <f t="shared" si="1"/>
-        <v>878</v>
-      </c>
-      <c r="F14" s="4">
-        <v>8</v>
-      </c>
-      <c r="G14" s="4">
-        <v>2</v>
-      </c>
-      <c r="H14" s="4">
-        <v>2</v>
-      </c>
-      <c r="I14" s="5">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J14" s="5">
-        <v>1</v>
-      </c>
-      <c r="K14" s="5">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="L14" s="6">
-        <f t="shared" si="3"/>
-        <v>1758</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="9">
-        <f t="shared" si="1"/>
-        <v>1758</v>
-      </c>
-      <c r="F15" s="4">
-        <v>8</v>
-      </c>
-      <c r="G15" s="4">
-        <v>2</v>
-      </c>
-      <c r="H15" s="4">
-        <v>2</v>
-      </c>
-      <c r="I15" s="5">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J15" s="5">
-        <v>1</v>
-      </c>
-      <c r="K15" s="5">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="L15" s="6">
-        <f t="shared" si="3"/>
-        <v>3518</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" s="9">
-        <f t="shared" si="1"/>
-        <v>3518</v>
-      </c>
-      <c r="F16" s="4">
-        <v>8</v>
-      </c>
-      <c r="G16" s="4">
-        <v>2</v>
-      </c>
-      <c r="H16" s="4">
-        <v>2</v>
-      </c>
-      <c r="I16" s="5">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J16" s="5">
-        <v>1</v>
-      </c>
-      <c r="K16" s="5">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="L16" s="6">
-        <f t="shared" si="3"/>
-        <v>7038</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" s="9">
-        <f t="shared" si="1"/>
-        <v>7038</v>
-      </c>
-      <c r="F17" s="4">
-        <v>8</v>
-      </c>
-      <c r="G17" s="4">
-        <v>2</v>
-      </c>
-      <c r="H17" s="4">
-        <v>2</v>
-      </c>
-      <c r="I17" s="5">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J17" s="5">
-        <v>1</v>
-      </c>
-      <c r="K17" s="5">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="L17" s="6">
-        <f t="shared" si="3"/>
-        <v>14078</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" s="9">
-        <f t="shared" si="1"/>
-        <v>14078</v>
-      </c>
-      <c r="F18" s="4">
-        <v>8</v>
-      </c>
-      <c r="G18" s="4">
-        <v>2</v>
-      </c>
-      <c r="H18" s="4">
-        <v>2</v>
-      </c>
-      <c r="I18" s="5">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J18" s="5">
-        <v>1</v>
-      </c>
-      <c r="K18" s="5">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="L18" s="6">
-        <f t="shared" si="3"/>
-        <v>28158</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+        <v>128</v>
+      </c>
+      <c r="M14" s="13">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1C6DBD0-F641-4BEB-ABCC-D63554CECF1B}">
+  <dimension ref="A6:P24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="7.7109375" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="6" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7">
+        <v>64</v>
+      </c>
+      <c r="C7" s="5">
+        <v>3</v>
+      </c>
+      <c r="D7" s="10">
+        <v>128</v>
+      </c>
+      <c r="E7" s="5">
+        <v>4</v>
+      </c>
+      <c r="F7" s="5">
+        <v>2</v>
+      </c>
+      <c r="G7" s="5">
+        <v>1</v>
+      </c>
+      <c r="H7" s="7">
+        <f>ROUNDUP((D7-E7+2*G7+1)/F7,0)</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="2">
+        <v>128</v>
+      </c>
+      <c r="C8" s="5">
+        <v>64</v>
+      </c>
+      <c r="D8" s="10">
+        <f>H7</f>
+        <v>64</v>
+      </c>
+      <c r="E8" s="5">
+        <v>8</v>
+      </c>
+      <c r="F8" s="5">
+        <v>2</v>
+      </c>
+      <c r="G8" s="5">
+        <v>3</v>
+      </c>
+      <c r="H8" s="7">
+        <f t="shared" ref="H8:H11" si="0">ROUNDUP((D8-E8+2*G8+1)/F8,0)</f>
+        <v>32</v>
+      </c>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9">
+        <v>256</v>
+      </c>
+      <c r="C9" s="5">
+        <v>128</v>
+      </c>
+      <c r="D9" s="10">
+        <f t="shared" ref="D9:D11" si="1">H8</f>
+        <v>32</v>
+      </c>
+      <c r="E9" s="5">
+        <v>4</v>
+      </c>
+      <c r="F9" s="5">
+        <v>2</v>
+      </c>
+      <c r="G9" s="5">
+        <v>1</v>
+      </c>
+      <c r="H9" s="7">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="2">
+        <v>512</v>
+      </c>
+      <c r="C10" s="5">
+        <v>256</v>
+      </c>
+      <c r="D10" s="10">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="E10" s="5">
+        <v>8</v>
+      </c>
+      <c r="F10" s="5">
+        <v>4</v>
+      </c>
+      <c r="G10" s="5">
+        <v>2</v>
+      </c>
+      <c r="H10" s="7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="13">
+        <v>1</v>
+      </c>
+      <c r="C11" s="5">
+        <v>512</v>
+      </c>
+      <c r="D11" s="10">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="E11" s="5">
+        <v>4</v>
+      </c>
+      <c r="F11" s="5">
+        <v>2</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0</v>
+      </c>
+      <c r="H11" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I11" s="13"/>
+    </row>
+    <row r="12" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L12" s="15"/>
+    </row>
+    <row r="18" spans="5:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+    </row>
+    <row r="19" spans="5:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+    </row>
+    <row r="20" spans="5:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+    </row>
+    <row r="21" spans="5:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+    </row>
+    <row r="22" spans="5:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+    </row>
+    <row r="23" spans="5:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+    </row>
+    <row r="24" spans="5:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/calculos.xlsx
+++ b/calculos.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rodri\Desktop\Proyecto_IA-Grupo4-Avance3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kpm_1\Documents\GitHub\Proyecto_IA-Grupo5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F820FCF-EA5D-424D-B314-1E2F60E277E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{886100DF-A1F6-4E54-AFA7-B8282C1342B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F16437FB-8B19-4661-A1F7-1D34F78DABC4}"/>
+    <workbookView xWindow="14400" yWindow="855" windowWidth="14400" windowHeight="15345" activeTab="1" xr2:uid="{F16437FB-8B19-4661-A1F7-1D34F78DABC4}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>kernel</t>
   </si>
@@ -85,6 +86,24 @@
   </si>
   <si>
     <t>DIM_Salida</t>
+  </si>
+  <si>
+    <t>C01</t>
+  </si>
+  <si>
+    <t>C02</t>
+  </si>
+  <si>
+    <t>C03</t>
+  </si>
+  <si>
+    <t>C04</t>
+  </si>
+  <si>
+    <t>C05</t>
+  </si>
+  <si>
+    <t>ch_1</t>
   </si>
 </sst>
 </file>
@@ -524,25 +543,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D800E5B0-0863-4E0D-AD68-03BCAFCD14AA}">
   <dimension ref="B1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="7.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="7.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.6640625" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" style="10" customWidth="1"/>
-    <col min="5" max="5" width="7.6640625" style="11"/>
-    <col min="6" max="7" width="7.6640625" style="10" customWidth="1"/>
-    <col min="8" max="11" width="7.6640625" style="10"/>
-    <col min="12" max="12" width="13.44140625" style="12" customWidth="1"/>
+    <col min="1" max="1" width="7.7109375" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" style="10" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" style="11"/>
+    <col min="6" max="7" width="7.7109375" style="10" customWidth="1"/>
+    <col min="8" max="11" width="7.7109375" style="10"/>
+    <col min="12" max="12" width="13.42578125" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D3" s="3"/>
       <c r="E3" s="8"/>
       <c r="F3" s="3"/>
@@ -553,7 +572,7 @@
       <c r="K3" s="3"/>
       <c r="L3" s="9"/>
     </row>
-    <row r="4" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="1"/>
       <c r="D4" s="3"/>
       <c r="E4" s="8"/>
@@ -565,7 +584,7 @@
       <c r="K4" s="3"/>
       <c r="L4" s="9"/>
     </row>
-    <row r="5" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="1"/>
       <c r="D5" s="3"/>
       <c r="E5" s="8"/>
@@ -577,7 +596,7 @@
       <c r="K5" s="3"/>
       <c r="L5" s="9"/>
     </row>
-    <row r="6" spans="2:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>
       <c r="D6" s="7" t="s">
         <v>3</v>
@@ -607,7 +626,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
@@ -642,7 +661,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
@@ -663,7 +682,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="5">
-        <f t="shared" ref="I8:I18" si="0">G8-1</f>
+        <f t="shared" ref="I8:I14" si="0">G8-1</f>
         <v>1</v>
       </c>
       <c r="J8" s="5">
@@ -678,13 +697,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="7">
-        <f t="shared" ref="E9:E18" si="1">L8</f>
+        <f t="shared" ref="E9:E14" si="1">L8</f>
         <v>4</v>
       </c>
       <c r="F9" s="4">
@@ -704,15 +723,15 @@
         <v>1</v>
       </c>
       <c r="K9" s="5">
-        <f t="shared" ref="K9:K18" si="2">F9-H9-1</f>
+        <f t="shared" ref="K9:K14" si="2">F9-H9-1</f>
         <v>1</v>
       </c>
       <c r="L9" s="6">
-        <f t="shared" ref="L9:L17" si="3">I9*(E9-1)+E9+2*K9-F9+1</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" ref="L9:L14" si="3">I9*(E9-1)+E9+2*K9-F9+1</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
@@ -746,7 +765,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
@@ -780,7 +799,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="2:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
@@ -814,7 +833,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
@@ -848,7 +867,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="13" t="s">
         <v>14</v>
       </c>
@@ -885,7 +904,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="15" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D15" s="3"/>
       <c r="E15" s="8"/>
       <c r="F15" s="3"/>
@@ -896,7 +915,7 @@
       <c r="K15" s="3"/>
       <c r="L15" s="9"/>
     </row>
-    <row r="16" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D16" s="3"/>
       <c r="E16" s="8"/>
       <c r="F16" s="3"/>
@@ -907,7 +926,7 @@
       <c r="K16" s="3"/>
       <c r="L16" s="9"/>
     </row>
-    <row r="17" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D17" s="3"/>
       <c r="E17" s="8"/>
       <c r="F17" s="3"/>
@@ -918,7 +937,7 @@
       <c r="K17" s="3"/>
       <c r="L17" s="9"/>
     </row>
-    <row r="18" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D18" s="3"/>
       <c r="E18" s="8"/>
       <c r="F18" s="3"/>
@@ -929,7 +948,7 @@
       <c r="K18" s="3"/>
       <c r="L18" s="9"/>
     </row>
-    <row r="19" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D19" s="3"/>
       <c r="E19" s="8"/>
       <c r="F19" s="3"/>
@@ -940,7 +959,7 @@
       <c r="K19" s="3"/>
       <c r="L19" s="9"/>
     </row>
-    <row r="20" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D20" s="3"/>
       <c r="E20" s="8"/>
       <c r="F20" s="3"/>
@@ -951,7 +970,7 @@
       <c r="K20" s="3"/>
       <c r="L20" s="9"/>
     </row>
-    <row r="21" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D21" s="3"/>
       <c r="E21" s="8"/>
       <c r="F21" s="3"/>
@@ -962,7 +981,7 @@
       <c r="K21" s="3"/>
       <c r="L21" s="9"/>
     </row>
-    <row r="22" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D22" s="3"/>
       <c r="E22" s="8"/>
       <c r="F22" s="3"/>
@@ -973,7 +992,7 @@
       <c r="K22" s="3"/>
       <c r="L22" s="9"/>
     </row>
-    <row r="23" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D23" s="3"/>
       <c r="E23" s="8"/>
       <c r="F23" s="3"/>
@@ -988,4 +1007,185 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25A09BB2-96A0-443E-B259-F7FE44368D7A}">
+  <dimension ref="B5:I10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="7.7109375" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="3"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6">
+        <v>64</v>
+      </c>
+      <c r="D6" s="4">
+        <v>3</v>
+      </c>
+      <c r="E6" s="7">
+        <v>128</v>
+      </c>
+      <c r="F6" s="4">
+        <v>4</v>
+      </c>
+      <c r="G6" s="4">
+        <v>2</v>
+      </c>
+      <c r="H6" s="4">
+        <v>1</v>
+      </c>
+      <c r="I6" s="6">
+        <f>ROUNDUP((E6-F6+1+2*H6)/G6,0)</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="1">
+        <v>128</v>
+      </c>
+      <c r="D7" s="4">
+        <v>64</v>
+      </c>
+      <c r="E7" s="7">
+        <f>I6</f>
+        <v>64</v>
+      </c>
+      <c r="F7" s="4">
+        <v>8</v>
+      </c>
+      <c r="G7" s="4">
+        <v>2</v>
+      </c>
+      <c r="H7" s="4">
+        <v>3</v>
+      </c>
+      <c r="I7" s="6">
+        <f t="shared" ref="I7:I10" si="0">ROUNDUP((E7-F7+1+2*H7)/G7,0)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8">
+        <v>256</v>
+      </c>
+      <c r="D8" s="4">
+        <v>128</v>
+      </c>
+      <c r="E8" s="7">
+        <f t="shared" ref="E8:E10" si="1">I7</f>
+        <v>32</v>
+      </c>
+      <c r="F8" s="4">
+        <v>4</v>
+      </c>
+      <c r="G8" s="4">
+        <v>2</v>
+      </c>
+      <c r="H8" s="4">
+        <v>1</v>
+      </c>
+      <c r="I8" s="6">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="1">
+        <v>512</v>
+      </c>
+      <c r="D9" s="4">
+        <v>256</v>
+      </c>
+      <c r="E9" s="7">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="F9" s="4">
+        <v>8</v>
+      </c>
+      <c r="G9" s="4">
+        <v>4</v>
+      </c>
+      <c r="H9" s="4">
+        <v>2</v>
+      </c>
+      <c r="I9" s="6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4">
+        <v>512</v>
+      </c>
+      <c r="E10" s="7">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F10" s="4">
+        <v>4</v>
+      </c>
+      <c r="G10" s="4">
+        <v>2</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0</v>
+      </c>
+      <c r="I10" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/calculos.xlsx
+++ b/calculos.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kpm_1\Documents\GitHub\Proyecto_IA-Grupo5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{886100DF-A1F6-4E54-AFA7-B8282C1342B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D4A3ACE-E2B1-44E9-9F0C-39DB02B7D762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="855" windowWidth="14400" windowHeight="15345" activeTab="1" xr2:uid="{F16437FB-8B19-4661-A1F7-1D34F78DABC4}"/>
+    <workbookView xWindow="14235" yWindow="975" windowWidth="14400" windowHeight="10275" xr2:uid="{F16437FB-8B19-4661-A1F7-1D34F78DABC4}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Generador" sheetId="1" r:id="rId1"/>
+    <sheet name="Discriminador" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
   <si>
     <t>kernel</t>
   </si>
@@ -46,9 +46,6 @@
     <t>padd</t>
   </si>
   <si>
-    <t>ch</t>
-  </si>
-  <si>
     <t>zero</t>
   </si>
   <si>
@@ -76,12 +73,6 @@
     <t>CT06</t>
   </si>
   <si>
-    <t>CT07</t>
-  </si>
-  <si>
-    <t>CT08</t>
-  </si>
-  <si>
     <t>dimImg</t>
   </si>
   <si>
@@ -103,14 +94,26 @@
     <t>C05</t>
   </si>
   <si>
-    <t>ch_1</t>
+    <t>ch_inp</t>
+  </si>
+  <si>
+    <t>ch_out</t>
+  </si>
+  <si>
+    <t>ch_ou</t>
+  </si>
+  <si>
+    <t>ch_in</t>
+  </si>
+  <si>
+    <t>C06</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,8 +142,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -171,12 +182,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -190,7 +195,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -211,12 +216,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -226,7 +225,19 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -541,10 +552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D800E5B0-0863-4E0D-AD68-03BCAFCD14AA}">
-  <dimension ref="B1:M23"/>
+  <dimension ref="B1:N37"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:L11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -552,125 +563,218 @@
     <col min="1" max="1" width="7.7109375" customWidth="1"/>
     <col min="2" max="2" width="7.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="7.7109375" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" style="10" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" style="11"/>
-    <col min="6" max="7" width="7.7109375" style="10" customWidth="1"/>
-    <col min="8" max="11" width="7.7109375" style="10"/>
-    <col min="12" max="12" width="13.42578125" style="12" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" style="8" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" style="9"/>
+    <col min="6" max="7" width="7.7109375" style="8" customWidth="1"/>
+    <col min="8" max="11" width="7.7109375" style="8"/>
+    <col min="12" max="12" width="13.42578125" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D3" s="3"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="9"/>
-    </row>
-    <row r="4" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="1"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="9"/>
-    </row>
-    <row r="5" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="1"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="9"/>
-    </row>
-    <row r="6" spans="2:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="3"/>
-      <c r="D6" s="7" t="s">
+    <row r="1" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="3"/>
+      <c r="C3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="7" t="s">
+      <c r="J3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="4">
+        <v>512</v>
+      </c>
+      <c r="D4" s="4">
+        <v>100</v>
+      </c>
+      <c r="E4" s="7">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4">
+        <v>4</v>
+      </c>
+      <c r="G4" s="4">
+        <v>1</v>
+      </c>
+      <c r="H4" s="4">
         <v>0</v>
       </c>
-      <c r="G6" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="L6" s="6" t="s">
+      <c r="I4" s="5">
+        <f>G4-1</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="5">
+        <v>1</v>
+      </c>
+      <c r="K4" s="5">
+        <f>F4-H4-1</f>
+        <v>3</v>
+      </c>
+      <c r="L4" s="6">
+        <f>I4*(E4-1)+E4+2*K4-F4+1</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="4">
+        <v>256</v>
+      </c>
+      <c r="D5" s="4">
+        <v>512</v>
+      </c>
+      <c r="E5" s="7">
+        <f>L4</f>
+        <v>4</v>
+      </c>
+      <c r="F5" s="4">
+        <v>4</v>
+      </c>
+      <c r="G5" s="4">
+        <v>2</v>
+      </c>
+      <c r="H5" s="4">
+        <v>1</v>
+      </c>
+      <c r="I5" s="5">
+        <f t="shared" ref="I5:I9" si="0">G5-1</f>
+        <v>1</v>
+      </c>
+      <c r="J5" s="5">
+        <v>1</v>
+      </c>
+      <c r="K5" s="5">
+        <f>F5-H5-1</f>
+        <v>2</v>
+      </c>
+      <c r="L5" s="6">
+        <f>I5*(E5-1)+E5+2*K5-F5+1</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="4">
+        <v>128</v>
+      </c>
+      <c r="D6" s="4">
+        <v>256</v>
+      </c>
+      <c r="E6" s="7">
+        <f t="shared" ref="E6:E9" si="1">L5</f>
+        <v>8</v>
+      </c>
+      <c r="F6" s="4">
+        <v>4</v>
+      </c>
+      <c r="G6" s="4">
+        <v>2</v>
+      </c>
+      <c r="H6" s="4">
+        <v>1</v>
+      </c>
+      <c r="I6" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J6" s="5">
+        <v>1</v>
+      </c>
+      <c r="K6" s="5">
+        <f t="shared" ref="K6:K9" si="2">F6-H6-1</f>
+        <v>2</v>
+      </c>
+      <c r="L6" s="6">
+        <f t="shared" ref="L6:L9" si="3">I6*(E6-1)+E6+2*K6-F6+1</f>
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="C7" s="4">
+        <v>64</v>
       </c>
       <c r="D7" s="4">
-        <v>200</v>
+        <v>128</v>
       </c>
       <c r="E7" s="7">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>16</v>
       </c>
       <c r="F7" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G7" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H7" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" s="5">
-        <f>G7-1</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="J7" s="5">
         <v>1</v>
       </c>
       <c r="K7" s="5">
-        <f>F7-H7-1</f>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="L7" s="6">
-        <f>I7*(E7-1)+E7+2*K7-F7+1</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+    </row>
+    <row r="8" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="C8" s="4">
+        <v>64</v>
       </c>
       <c r="D8" s="4">
-        <v>1024</v>
+        <v>64</v>
       </c>
       <c r="E8" s="7">
-        <f>L7</f>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>32</v>
       </c>
       <c r="F8" s="4">
         <v>4</v>
@@ -682,326 +786,248 @@
         <v>1</v>
       </c>
       <c r="I8" s="5">
-        <f t="shared" ref="I8:I14" si="0">G8-1</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J8" s="5">
         <v>1</v>
       </c>
       <c r="K8" s="5">
-        <f>F8-H8-1</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="L8" s="6">
-        <f>I8*(E8-1)+E8+2*K8-F8+1</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>64</v>
+      </c>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+    </row>
+    <row r="9" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="C9" s="1">
+        <v>3</v>
+      </c>
+      <c r="D9" s="4">
+        <v>64</v>
+      </c>
       <c r="E9" s="7">
-        <f t="shared" ref="E9:E14" si="1">L8</f>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>64</v>
       </c>
       <c r="F9" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G9" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H9" s="4">
         <v>1</v>
       </c>
       <c r="I9" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" s="5">
         <v>1</v>
       </c>
       <c r="K9" s="5">
-        <f t="shared" ref="K9:K14" si="2">F9-H9-1</f>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="L9" s="6">
-        <f t="shared" ref="L9:L14" si="3">I9*(E9-1)+E9+2*K9-F9+1</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="7">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="F10" s="4">
-        <v>2</v>
-      </c>
-      <c r="G10" s="4">
-        <v>2</v>
-      </c>
-      <c r="H10" s="4">
-        <v>0</v>
-      </c>
-      <c r="I10" s="5">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J10" s="5">
-        <v>1</v>
-      </c>
-      <c r="K10" s="5">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="L10" s="6">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="7">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="F11" s="4">
-        <v>2</v>
-      </c>
-      <c r="G11" s="4">
-        <v>2</v>
-      </c>
-      <c r="H11" s="4">
-        <v>0</v>
-      </c>
-      <c r="I11" s="5">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J11" s="5">
-        <v>1</v>
-      </c>
-      <c r="K11" s="5">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="L11" s="6">
-        <f t="shared" si="3"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="7">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="F12" s="4">
-        <v>4</v>
-      </c>
-      <c r="G12" s="4">
-        <v>2</v>
-      </c>
-      <c r="H12" s="4">
-        <v>1</v>
-      </c>
-      <c r="I12" s="5">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J12" s="5">
-        <v>1</v>
-      </c>
-      <c r="K12" s="5">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="L12" s="6">
-        <f t="shared" si="3"/>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="7">
-        <f t="shared" si="1"/>
-        <v>32</v>
-      </c>
-      <c r="F13" s="4">
-        <v>2</v>
-      </c>
-      <c r="G13" s="4">
-        <v>2</v>
-      </c>
-      <c r="H13" s="4">
-        <v>0</v>
-      </c>
-      <c r="I13" s="5">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J13" s="5">
-        <v>1</v>
-      </c>
-      <c r="K13" s="5">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="L13" s="6">
-        <f t="shared" si="3"/>
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="7">
-        <f t="shared" si="1"/>
-        <v>64</v>
-      </c>
-      <c r="F14" s="4">
-        <v>2</v>
-      </c>
-      <c r="G14" s="4">
-        <v>2</v>
-      </c>
-      <c r="H14" s="4">
-        <v>0</v>
-      </c>
-      <c r="I14" s="5">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J14" s="5">
-        <v>1</v>
-      </c>
-      <c r="K14" s="5">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="L14" s="6">
         <f t="shared" si="3"/>
         <v>128</v>
       </c>
-      <c r="M14" s="13">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D15" s="3"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="9"/>
-    </row>
-    <row r="16" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D16" s="3"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="9"/>
-    </row>
-    <row r="17" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D17" s="3"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="9"/>
-    </row>
-    <row r="18" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D18" s="3"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="9"/>
-    </row>
-    <row r="19" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D19" s="3"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="9"/>
-    </row>
-    <row r="20" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D20" s="3"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="9"/>
-    </row>
-    <row r="21" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D21" s="3"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="9"/>
-    </row>
-    <row r="22" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D22" s="3"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="9"/>
-    </row>
-    <row r="23" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D23" s="3"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="9"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+    </row>
+    <row r="10" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="3"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+    </row>
+    <row r="11" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="3"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+    </row>
+    <row r="12" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D12" s="3"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D13" s="3"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D14" s="3"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E15" s="12"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E16" s="12"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+    </row>
+    <row r="17" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E17" s="12"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+    </row>
+    <row r="18" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E18" s="12"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+    </row>
+    <row r="19" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E19" s="12"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+    </row>
+    <row r="20" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="L20" s="15"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+    </row>
+    <row r="21" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="L21" s="15"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+    </row>
+    <row r="22" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="L22" s="15"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+    </row>
+    <row r="23" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="L23" s="15"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+    </row>
+    <row r="24" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="L24" s="15"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+    </row>
+    <row r="25" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="L25" s="15"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+    </row>
+    <row r="26" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="L26" s="15"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+    </row>
+    <row r="27" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="L27" s="15"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
+    </row>
+    <row r="28" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="L28" s="15"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+    </row>
+    <row r="29" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="L29" s="15"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
+    </row>
+    <row r="30" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="L30" s="15"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14"/>
+    </row>
+    <row r="31" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="L31" s="15"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14"/>
+    </row>
+    <row r="32" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="L32" s="15"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14"/>
+    </row>
+    <row r="33" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L33" s="15"/>
+      <c r="M33" s="14"/>
+      <c r="N33" s="14"/>
+    </row>
+    <row r="34" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L34" s="15"/>
+      <c r="M34" s="14"/>
+      <c r="N34" s="14"/>
+    </row>
+    <row r="35" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L35" s="15"/>
+      <c r="M35" s="14"/>
+      <c r="N35" s="14"/>
+    </row>
+    <row r="36" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L36" s="15"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="14"/>
+    </row>
+    <row r="37" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L37" s="15"/>
+      <c r="M37" s="14"/>
+      <c r="N37" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -1011,10 +1037,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25A09BB2-96A0-443E-B259-F7FE44368D7A}">
-  <dimension ref="B5:I10"/>
+  <dimension ref="B2:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.7109375" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1022,25 +1048,110 @@
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="3"/>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3">
+        <v>64</v>
+      </c>
+      <c r="D3" s="4">
+        <v>3</v>
+      </c>
+      <c r="E3" s="7">
+        <v>128</v>
+      </c>
+      <c r="F3" s="4">
+        <v>4</v>
+      </c>
+      <c r="G3" s="4">
+        <v>2</v>
+      </c>
+      <c r="H3" s="4">
+        <v>1</v>
+      </c>
+      <c r="I3" s="6">
+        <f>ROUNDUP((E3-F3+1+2*H3)/G3,0)</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1">
+        <v>64</v>
+      </c>
+      <c r="D4" s="4">
+        <v>64</v>
+      </c>
+      <c r="E4" s="7">
+        <f>I3</f>
+        <v>64</v>
+      </c>
+      <c r="F4" s="4">
+        <v>4</v>
+      </c>
+      <c r="G4" s="4">
+        <v>2</v>
+      </c>
+      <c r="H4" s="4">
+        <v>1</v>
+      </c>
+      <c r="I4" s="6">
+        <f t="shared" ref="I4:I8" si="0">ROUNDUP((E4-F4+1+2*H4)/G4,0)</f>
+        <v>32</v>
+      </c>
+    </row>
     <row r="5" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="3"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="I5" s="6" t="s">
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5">
+        <v>128</v>
+      </c>
+      <c r="D5" s="4">
+        <v>64</v>
+      </c>
+      <c r="E5" s="7">
+        <f t="shared" ref="E5:E8" si="1">I4</f>
+        <v>32</v>
+      </c>
+      <c r="F5" s="4">
+        <v>4</v>
+      </c>
+      <c r="G5" s="4">
+        <v>2</v>
+      </c>
+      <c r="H5" s="4">
+        <v>1</v>
+      </c>
+      <c r="I5" s="6">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
     </row>
@@ -1048,14 +1159,15 @@
       <c r="B6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C6">
-        <v>64</v>
+      <c r="C6" s="1">
+        <v>256</v>
       </c>
       <c r="D6" s="4">
-        <v>3</v>
+        <v>128</v>
       </c>
       <c r="E6" s="7">
-        <v>128</v>
+        <f t="shared" si="1"/>
+        <v>16</v>
       </c>
       <c r="F6" s="4">
         <v>4</v>
@@ -1067,8 +1179,8 @@
         <v>1</v>
       </c>
       <c r="I6" s="6">
-        <f>ROUNDUP((E6-F6+1+2*H6)/G6,0)</f>
-        <v>64</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1076,109 +1188,53 @@
         <v>18</v>
       </c>
       <c r="C7" s="1">
-        <v>128</v>
+        <v>512</v>
       </c>
       <c r="D7" s="4">
-        <v>64</v>
+        <v>256</v>
       </c>
       <c r="E7" s="7">
-        <f>I6</f>
-        <v>64</v>
+        <f t="shared" si="1"/>
+        <v>8</v>
       </c>
       <c r="F7" s="4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G7" s="4">
         <v>2</v>
       </c>
       <c r="H7" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I7" s="6">
-        <f t="shared" ref="I7:I10" si="0">ROUNDUP((E7-F7+1+2*H7)/G7,0)</f>
-        <v>32</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8">
-        <v>256</v>
+        <v>23</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
       </c>
       <c r="D8" s="4">
-        <v>128</v>
+        <v>512</v>
       </c>
       <c r="E8" s="7">
-        <f t="shared" ref="E8:E10" si="1">I7</f>
-        <v>32</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="F8" s="4">
         <v>4</v>
       </c>
       <c r="G8" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H8" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" s="6">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="1">
-        <v>512</v>
-      </c>
-      <c r="D9" s="4">
-        <v>256</v>
-      </c>
-      <c r="E9" s="7">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="F9" s="4">
-        <v>8</v>
-      </c>
-      <c r="G9" s="4">
-        <v>4</v>
-      </c>
-      <c r="H9" s="4">
-        <v>2</v>
-      </c>
-      <c r="I9" s="6">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="1">
-        <v>1</v>
-      </c>
-      <c r="D10" s="4">
-        <v>512</v>
-      </c>
-      <c r="E10" s="7">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="F10" s="4">
-        <v>4</v>
-      </c>
-      <c r="G10" s="4">
-        <v>2</v>
-      </c>
-      <c r="H10" s="4">
-        <v>0</v>
-      </c>
-      <c r="I10" s="6">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>

--- a/calculos.xlsx
+++ b/calculos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kpm_1\Documents\GitHub\Proyecto_IA-Grupo5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D4A3ACE-E2B1-44E9-9F0C-39DB02B7D762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67809E92-D607-4ADB-B385-E2D71D1435F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14235" yWindow="975" windowWidth="14400" windowHeight="10275" xr2:uid="{F16437FB-8B19-4661-A1F7-1D34F78DABC4}"/>
+    <workbookView xWindow="20340" yWindow="11310" windowWidth="17805" windowHeight="12720" xr2:uid="{F16437FB-8B19-4661-A1F7-1D34F78DABC4}"/>
   </bookViews>
   <sheets>
     <sheet name="Generador" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="46">
   <si>
     <t>kernel</t>
   </si>
@@ -107,6 +107,72 @@
   </si>
   <si>
     <t>C06</t>
+  </si>
+  <si>
+    <t>C07</t>
+  </si>
+  <si>
+    <t>C08</t>
+  </si>
+  <si>
+    <t>AVGpool</t>
+  </si>
+  <si>
+    <t>Lin</t>
+  </si>
+  <si>
+    <t>n=7</t>
+  </si>
+  <si>
+    <t>p=0</t>
+  </si>
+  <si>
+    <t>s=2</t>
+  </si>
+  <si>
+    <t>p=1</t>
+  </si>
+  <si>
+    <t>n=8</t>
+  </si>
+  <si>
+    <t>k=5</t>
+  </si>
+  <si>
+    <t>k=3</t>
+  </si>
+  <si>
+    <t>Versión 2</t>
+  </si>
+  <si>
+    <t>MXPOOL</t>
+  </si>
+  <si>
+    <t>UPSmp</t>
+  </si>
+  <si>
+    <t>CT07</t>
+  </si>
+  <si>
+    <t>CT08</t>
+  </si>
+  <si>
+    <t>CT09</t>
+  </si>
+  <si>
+    <t>CT10</t>
+  </si>
+  <si>
+    <t>CT11</t>
+  </si>
+  <si>
+    <t>CT12</t>
+  </si>
+  <si>
+    <t>CT13</t>
+  </si>
+  <si>
+    <t>CT14</t>
   </si>
 </sst>
 </file>
@@ -183,7 +249,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -191,11 +257,219 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -228,14 +502,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -552,10 +849,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D800E5B0-0863-4E0D-AD68-03BCAFCD14AA}">
-  <dimension ref="B1:N37"/>
+  <dimension ref="B1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -759,8 +1056,8 @@
         <f t="shared" si="3"/>
         <v>32</v>
       </c>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
     </row>
     <row r="8" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
@@ -800,8 +1097,8 @@
         <f t="shared" si="3"/>
         <v>64</v>
       </c>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
     </row>
     <row r="9" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
@@ -841,8 +1138,8 @@
         <f t="shared" si="3"/>
         <v>128</v>
       </c>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
     </row>
     <row r="10" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D10" s="3"/>
@@ -853,9 +1150,9 @@
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
     </row>
     <row r="11" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D11" s="3"/>
@@ -866,9 +1163,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
     </row>
     <row r="12" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D12" s="3"/>
@@ -879,155 +1176,667 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D13" s="3"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D14" s="3"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
+      <c r="B14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="4">
+        <v>512</v>
+      </c>
+      <c r="D14" s="4">
+        <v>200</v>
+      </c>
+      <c r="E14" s="7">
+        <v>1</v>
+      </c>
+      <c r="F14" s="4">
+        <v>4</v>
+      </c>
+      <c r="G14" s="4">
+        <v>1</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0</v>
+      </c>
+      <c r="I14" s="5">
+        <f>G14-1</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="5">
+        <v>1</v>
+      </c>
+      <c r="K14" s="5">
+        <f>F14-H14-1</f>
+        <v>3</v>
+      </c>
+      <c r="L14" s="6">
+        <f>I14*(E14-1)+E14+2*K14-F14+1</f>
+        <v>4</v>
+      </c>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E15" s="12"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
+      <c r="B15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="4">
+        <v>512</v>
+      </c>
+      <c r="D15" s="4">
+        <v>512</v>
+      </c>
+      <c r="E15" s="7">
+        <v>4</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="6">
+        <v>8</v>
+      </c>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E16" s="12"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
-    </row>
-    <row r="17" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E17" s="12"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
-    </row>
-    <row r="18" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E18" s="12"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
-    </row>
-    <row r="19" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E19" s="12"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
-    </row>
-    <row r="20" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="L20" s="15"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="14"/>
-    </row>
-    <row r="21" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="L21" s="15"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="14"/>
-    </row>
-    <row r="22" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="L22" s="15"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="14"/>
-    </row>
-    <row r="23" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="L23" s="15"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="14"/>
-    </row>
-    <row r="24" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="L24" s="15"/>
-      <c r="M24" s="14"/>
-      <c r="N24" s="14"/>
-    </row>
-    <row r="25" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="L25" s="15"/>
-      <c r="M25" s="14"/>
-      <c r="N25" s="14"/>
-    </row>
-    <row r="26" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="L26" s="15"/>
-      <c r="M26" s="14"/>
-      <c r="N26" s="14"/>
-    </row>
-    <row r="27" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="L27" s="15"/>
-      <c r="M27" s="14"/>
-      <c r="N27" s="14"/>
-    </row>
-    <row r="28" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="L28" s="15"/>
-      <c r="M28" s="14"/>
-      <c r="N28" s="14"/>
-    </row>
-    <row r="29" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="L29" s="15"/>
-      <c r="M29" s="14"/>
-      <c r="N29" s="14"/>
-    </row>
-    <row r="30" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="L30" s="15"/>
-      <c r="M30" s="14"/>
-      <c r="N30" s="14"/>
-    </row>
-    <row r="31" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="L31" s="15"/>
-      <c r="M31" s="14"/>
-      <c r="N31" s="14"/>
-    </row>
-    <row r="32" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="L32" s="15"/>
-      <c r="M32" s="14"/>
-      <c r="N32" s="14"/>
+      <c r="B16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="4">
+        <v>512</v>
+      </c>
+      <c r="D16" s="4">
+        <v>512</v>
+      </c>
+      <c r="E16" s="7">
+        <v>8</v>
+      </c>
+      <c r="F16" s="4">
+        <v>3</v>
+      </c>
+      <c r="G16" s="4">
+        <v>1</v>
+      </c>
+      <c r="H16" s="4">
+        <v>1</v>
+      </c>
+      <c r="I16" s="5">
+        <f t="shared" ref="I16:I20" si="4">G16-1</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="5">
+        <v>1</v>
+      </c>
+      <c r="K16" s="5">
+        <f>F16-H16-1</f>
+        <v>1</v>
+      </c>
+      <c r="L16" s="6">
+        <f>I16*(E16-1)+E16+2*K16-F16+1</f>
+        <v>8</v>
+      </c>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="4">
+        <v>256</v>
+      </c>
+      <c r="D17" s="4">
+        <v>512</v>
+      </c>
+      <c r="E17" s="7">
+        <f t="shared" ref="E17:E20" si="5">L16</f>
+        <v>8</v>
+      </c>
+      <c r="F17" s="4">
+        <v>4</v>
+      </c>
+      <c r="G17" s="4">
+        <v>2</v>
+      </c>
+      <c r="H17" s="4">
+        <v>1</v>
+      </c>
+      <c r="I17" s="5">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J17" s="5">
+        <v>1</v>
+      </c>
+      <c r="K17" s="5">
+        <f t="shared" ref="K17:K20" si="6">F17-H17-1</f>
+        <v>2</v>
+      </c>
+      <c r="L17" s="6">
+        <f t="shared" ref="L17:L20" si="7">I17*(E17-1)+E17+2*K17-F17+1</f>
+        <v>16</v>
+      </c>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="4">
+        <v>256</v>
+      </c>
+      <c r="D18" s="4">
+        <v>256</v>
+      </c>
+      <c r="E18" s="7">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="F18" s="4">
+        <v>3</v>
+      </c>
+      <c r="G18" s="4">
+        <v>1</v>
+      </c>
+      <c r="H18" s="4">
+        <v>1</v>
+      </c>
+      <c r="I18" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="5">
+        <v>1</v>
+      </c>
+      <c r="K18" s="5">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="L18" s="6">
+        <f t="shared" si="7"/>
+        <v>16</v>
+      </c>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="4">
+        <v>128</v>
+      </c>
+      <c r="D19" s="4">
+        <v>256</v>
+      </c>
+      <c r="E19" s="7">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="F19" s="4">
+        <v>4</v>
+      </c>
+      <c r="G19" s="4">
+        <v>2</v>
+      </c>
+      <c r="H19" s="4">
+        <v>1</v>
+      </c>
+      <c r="I19" s="5">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J19" s="5">
+        <v>1</v>
+      </c>
+      <c r="K19" s="5">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="L19" s="6">
+        <f t="shared" si="7"/>
+        <v>32</v>
+      </c>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="4">
+        <v>128</v>
+      </c>
+      <c r="D20" s="4">
+        <v>128</v>
+      </c>
+      <c r="E20" s="7">
+        <f t="shared" ref="E20:E28" si="8">L19</f>
+        <v>32</v>
+      </c>
+      <c r="F20" s="4">
+        <v>3</v>
+      </c>
+      <c r="G20" s="4">
+        <v>1</v>
+      </c>
+      <c r="H20" s="4">
+        <v>1</v>
+      </c>
+      <c r="I20" s="5">
+        <f t="shared" ref="I20:I28" si="9">G20-1</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="5">
+        <v>2</v>
+      </c>
+      <c r="K20" s="5">
+        <f t="shared" ref="K20:K28" si="10">F20-H20-1</f>
+        <v>1</v>
+      </c>
+      <c r="L20" s="6">
+        <f t="shared" ref="L20:L28" si="11">I20*(E20-1)+E20+2*K20-F20+1</f>
+        <v>32</v>
+      </c>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="4">
+        <v>64</v>
+      </c>
+      <c r="D21" s="4">
+        <v>128</v>
+      </c>
+      <c r="E21" s="7">
+        <f t="shared" si="8"/>
+        <v>32</v>
+      </c>
+      <c r="F21" s="4">
+        <v>4</v>
+      </c>
+      <c r="G21" s="4">
+        <v>2</v>
+      </c>
+      <c r="H21" s="4">
+        <v>1</v>
+      </c>
+      <c r="I21" s="5">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="J21" s="5">
+        <v>3</v>
+      </c>
+      <c r="K21" s="5">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="L21" s="6">
+        <f t="shared" si="11"/>
+        <v>64</v>
+      </c>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="4">
+        <v>64</v>
+      </c>
+      <c r="D22" s="4">
+        <v>64</v>
+      </c>
+      <c r="E22" s="7">
+        <f t="shared" si="8"/>
+        <v>64</v>
+      </c>
+      <c r="F22" s="4">
+        <v>3</v>
+      </c>
+      <c r="G22" s="4">
+        <v>1</v>
+      </c>
+      <c r="H22" s="4">
+        <v>1</v>
+      </c>
+      <c r="I22" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="5">
+        <v>4</v>
+      </c>
+      <c r="K22" s="5">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="L22" s="6">
+        <f t="shared" si="11"/>
+        <v>64</v>
+      </c>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="4">
+        <v>3</v>
+      </c>
+      <c r="D23" s="4">
+        <v>64</v>
+      </c>
+      <c r="E23" s="7">
+        <f t="shared" si="8"/>
+        <v>64</v>
+      </c>
+      <c r="F23" s="4">
+        <v>4</v>
+      </c>
+      <c r="G23" s="4">
+        <v>2</v>
+      </c>
+      <c r="H23" s="4">
+        <v>1</v>
+      </c>
+      <c r="I23" s="5">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="J23" s="5">
+        <v>5</v>
+      </c>
+      <c r="K23" s="5">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="L23" s="6">
+        <f t="shared" si="11"/>
+        <v>128</v>
+      </c>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="4">
+        <v>128</v>
+      </c>
+      <c r="D25" s="4">
+        <v>256</v>
+      </c>
+      <c r="E25" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F25" s="4">
+        <v>4</v>
+      </c>
+      <c r="G25" s="4">
+        <v>1</v>
+      </c>
+      <c r="H25" s="4">
+        <v>1</v>
+      </c>
+      <c r="I25" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="5">
+        <v>7</v>
+      </c>
+      <c r="K25" s="5">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="L25" s="6">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="4">
+        <v>128</v>
+      </c>
+      <c r="D26" s="4">
+        <v>256</v>
+      </c>
+      <c r="E26" s="7">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="F26" s="4">
+        <v>4</v>
+      </c>
+      <c r="G26" s="4">
+        <v>1</v>
+      </c>
+      <c r="H26" s="4">
+        <v>1</v>
+      </c>
+      <c r="I26" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="5">
+        <v>8</v>
+      </c>
+      <c r="K26" s="5">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="L26" s="6">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="4">
+        <v>128</v>
+      </c>
+      <c r="D27" s="4">
+        <v>256</v>
+      </c>
+      <c r="E27" s="7">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="F27" s="4">
+        <v>4</v>
+      </c>
+      <c r="G27" s="4">
+        <v>1</v>
+      </c>
+      <c r="H27" s="4">
+        <v>1</v>
+      </c>
+      <c r="I27" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J27" s="5">
+        <v>9</v>
+      </c>
+      <c r="K27" s="5">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="L27" s="6">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="M27" s="13"/>
+      <c r="N27" s="13"/>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="4">
+        <v>128</v>
+      </c>
+      <c r="D28" s="4">
+        <v>256</v>
+      </c>
+      <c r="E28" s="7">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="F28" s="4">
+        <v>4</v>
+      </c>
+      <c r="G28" s="4">
+        <v>1</v>
+      </c>
+      <c r="H28" s="4">
+        <v>1</v>
+      </c>
+      <c r="I28" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J28" s="5">
+        <v>10</v>
+      </c>
+      <c r="K28" s="5">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="L28" s="6">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="M28" s="13"/>
+      <c r="N28" s="13"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="L29" s="14"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="13"/>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="L30" s="14"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="13"/>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="L31" s="14"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="13"/>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="L32" s="14"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="13"/>
     </row>
     <row r="33" spans="12:14" x14ac:dyDescent="0.25">
-      <c r="L33" s="15"/>
-      <c r="M33" s="14"/>
-      <c r="N33" s="14"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="13"/>
+      <c r="N33" s="13"/>
     </row>
     <row r="34" spans="12:14" x14ac:dyDescent="0.25">
-      <c r="L34" s="15"/>
-      <c r="M34" s="14"/>
-      <c r="N34" s="14"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="13"/>
+      <c r="N34" s="13"/>
     </row>
     <row r="35" spans="12:14" x14ac:dyDescent="0.25">
-      <c r="L35" s="15"/>
-      <c r="M35" s="14"/>
-      <c r="N35" s="14"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="13"/>
+      <c r="N35" s="13"/>
     </row>
     <row r="36" spans="12:14" x14ac:dyDescent="0.25">
-      <c r="L36" s="15"/>
-      <c r="M36" s="14"/>
-      <c r="N36" s="14"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="13"/>
+      <c r="N36" s="13"/>
     </row>
     <row r="37" spans="12:14" x14ac:dyDescent="0.25">
-      <c r="L37" s="15"/>
-      <c r="M37" s="14"/>
-      <c r="N37" s="14"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="13"/>
+      <c r="N37" s="13"/>
+    </row>
+    <row r="38" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L38" s="14"/>
+      <c r="M38" s="13"/>
+      <c r="N38" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -1037,10 +1846,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25A09BB2-96A0-443E-B259-F7FE44368D7A}">
-  <dimension ref="B2:I8"/>
+  <dimension ref="A2:X56"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="B15" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.7109375" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1239,7 +2048,553 @@
         <v>1</v>
       </c>
     </row>
+    <row r="13" spans="2:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="2:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="34"/>
+    </row>
+    <row r="16" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="3"/>
+      <c r="C16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17">
+        <v>64</v>
+      </c>
+      <c r="D17" s="4">
+        <v>3</v>
+      </c>
+      <c r="E17" s="7">
+        <v>128</v>
+      </c>
+      <c r="F17" s="4">
+        <v>7</v>
+      </c>
+      <c r="G17" s="4">
+        <v>2</v>
+      </c>
+      <c r="H17" s="4">
+        <v>3</v>
+      </c>
+      <c r="I17" s="6">
+        <f>ROUNDUP((E17-F17+1+2*H17)/G17,0)</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18">
+        <v>64</v>
+      </c>
+      <c r="D18" s="4">
+        <v>64</v>
+      </c>
+      <c r="E18" s="7">
+        <v>64</v>
+      </c>
+      <c r="F18" s="4">
+        <v>3</v>
+      </c>
+      <c r="G18" s="4">
+        <v>2</v>
+      </c>
+      <c r="H18" s="4">
+        <v>1</v>
+      </c>
+      <c r="I18" s="6">
+        <f>ROUNDUP((E18-F18+1+2*H18)/G18,0)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="1">
+        <v>64</v>
+      </c>
+      <c r="D19" s="4">
+        <v>64</v>
+      </c>
+      <c r="E19" s="7">
+        <f>I18</f>
+        <v>32</v>
+      </c>
+      <c r="F19" s="4">
+        <v>3</v>
+      </c>
+      <c r="G19" s="4">
+        <v>1</v>
+      </c>
+      <c r="H19" s="4">
+        <v>1</v>
+      </c>
+      <c r="I19" s="6">
+        <f t="shared" ref="I19:I23" si="2">ROUNDUP((E19-F19+1+2*H19)/G19,0)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20">
+        <v>128</v>
+      </c>
+      <c r="D20" s="4">
+        <v>64</v>
+      </c>
+      <c r="E20" s="7">
+        <f t="shared" ref="E20:E23" si="3">I19</f>
+        <v>32</v>
+      </c>
+      <c r="F20" s="4">
+        <v>3</v>
+      </c>
+      <c r="G20" s="4">
+        <v>2</v>
+      </c>
+      <c r="H20" s="4">
+        <v>1</v>
+      </c>
+      <c r="I20" s="6">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="1">
+        <v>128</v>
+      </c>
+      <c r="D21" s="4">
+        <v>128</v>
+      </c>
+      <c r="E21" s="7">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="F21" s="4">
+        <v>3</v>
+      </c>
+      <c r="G21" s="4">
+        <v>1</v>
+      </c>
+      <c r="H21" s="4">
+        <v>1</v>
+      </c>
+      <c r="I21" s="6">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="1">
+        <v>256</v>
+      </c>
+      <c r="D22" s="4">
+        <v>128</v>
+      </c>
+      <c r="E22" s="7">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="F22" s="4">
+        <v>3</v>
+      </c>
+      <c r="G22" s="4">
+        <v>2</v>
+      </c>
+      <c r="H22" s="4">
+        <v>1</v>
+      </c>
+      <c r="I22" s="6">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="1">
+        <v>256</v>
+      </c>
+      <c r="D23" s="4">
+        <v>256</v>
+      </c>
+      <c r="E23" s="7">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="F23" s="4">
+        <v>3</v>
+      </c>
+      <c r="G23" s="4">
+        <v>1</v>
+      </c>
+      <c r="H23" s="4">
+        <v>1</v>
+      </c>
+      <c r="I23" s="6">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="1">
+        <v>512</v>
+      </c>
+      <c r="D24" s="4">
+        <v>256</v>
+      </c>
+      <c r="E24" s="7">
+        <f t="shared" ref="E24:E25" si="4">I23</f>
+        <v>8</v>
+      </c>
+      <c r="F24" s="4">
+        <v>3</v>
+      </c>
+      <c r="G24" s="4">
+        <v>2</v>
+      </c>
+      <c r="H24" s="4">
+        <v>1</v>
+      </c>
+      <c r="I24" s="6">
+        <f t="shared" ref="I24:I25" si="5">ROUNDUP((E24-F24+1+2*H24)/G24,0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="1">
+        <v>512</v>
+      </c>
+      <c r="D25" s="4">
+        <v>512</v>
+      </c>
+      <c r="E25" s="7">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="F25" s="4">
+        <v>3</v>
+      </c>
+      <c r="G25" s="4">
+        <v>1</v>
+      </c>
+      <c r="H25" s="4">
+        <v>1</v>
+      </c>
+      <c r="I25" s="6">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="1">
+        <v>512</v>
+      </c>
+      <c r="D26" s="4">
+        <v>512</v>
+      </c>
+      <c r="E26">
+        <v>4</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D28" s="4">
+        <v>512</v>
+      </c>
+      <c r="E28" s="7">
+        <v>1</v>
+      </c>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="43" spans="1:18" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="24"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="26"/>
+      <c r="P43" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>29</v>
+      </c>
+      <c r="R43" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="27"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="17"/>
+      <c r="J44" s="28"/>
+    </row>
+    <row r="45" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="27"/>
+      <c r="B45" s="15"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="18"/>
+      <c r="J45" s="28"/>
+      <c r="P45">
+        <v>1</v>
+      </c>
+      <c r="Q45">
+        <v>2</v>
+      </c>
+      <c r="R45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="27"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="16"/>
+      <c r="I46" s="18"/>
+      <c r="J46" s="28"/>
+      <c r="P46">
+        <v>4</v>
+      </c>
+      <c r="Q46">
+        <v>5</v>
+      </c>
+      <c r="R46">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="27"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="16"/>
+      <c r="I47" s="18"/>
+      <c r="J47" s="28"/>
+      <c r="P47">
+        <v>7</v>
+      </c>
+      <c r="Q47">
+        <v>8</v>
+      </c>
+      <c r="R47">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="27"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="16"/>
+      <c r="I48" s="18"/>
+      <c r="J48" s="28"/>
+    </row>
+    <row r="49" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="27"/>
+      <c r="B49" s="15"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="15"/>
+      <c r="H49" s="16"/>
+      <c r="I49" s="18"/>
+      <c r="J49" s="28"/>
+    </row>
+    <row r="50" spans="1:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="27"/>
+      <c r="B50" s="19"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="19"/>
+      <c r="G50" s="19"/>
+      <c r="H50" s="20"/>
+      <c r="I50" s="18"/>
+      <c r="J50" s="28"/>
+    </row>
+    <row r="51" spans="1:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="27"/>
+      <c r="B51" s="21"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="22"/>
+      <c r="E51" s="22"/>
+      <c r="F51" s="22"/>
+      <c r="G51" s="22"/>
+      <c r="H51" s="22"/>
+      <c r="I51" s="23"/>
+      <c r="J51" s="28"/>
+      <c r="P51" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>31</v>
+      </c>
+      <c r="R51" t="s">
+        <v>30</v>
+      </c>
+      <c r="S51" t="s">
+        <v>34</v>
+      </c>
+      <c r="U51" t="s">
+        <v>32</v>
+      </c>
+      <c r="V51" t="s">
+        <v>31</v>
+      </c>
+      <c r="W51" t="s">
+        <v>30</v>
+      </c>
+      <c r="X51" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="29"/>
+      <c r="B52" s="30"/>
+      <c r="C52" s="30"/>
+      <c r="D52" s="30"/>
+      <c r="E52" s="30"/>
+      <c r="F52" s="30"/>
+      <c r="G52" s="30"/>
+      <c r="H52" s="30"/>
+      <c r="I52" s="30"/>
+      <c r="J52" s="31"/>
+    </row>
+    <row r="53" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P53">
+        <v>1</v>
+      </c>
+      <c r="Q53">
+        <v>2</v>
+      </c>
+      <c r="R53">
+        <v>3</v>
+      </c>
+      <c r="S53">
+        <v>4</v>
+      </c>
+      <c r="U53">
+        <v>1</v>
+      </c>
+      <c r="V53">
+        <v>2</v>
+      </c>
+      <c r="W53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P56">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B14:I14"/>
+  </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/calculos.xlsx
+++ b/calculos.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kpm_1\Documents\GitHub\Proyecto_IA-Grupo5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67809E92-D607-4ADB-B385-E2D71D1435F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E83274E-50DD-4732-BBBB-1B041A04C4D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20340" yWindow="11310" windowWidth="17805" windowHeight="12720" xr2:uid="{F16437FB-8B19-4661-A1F7-1D34F78DABC4}"/>
+    <workbookView xWindow="1185" yWindow="4380" windowWidth="14940" windowHeight="10050" activeTab="1" xr2:uid="{F16437FB-8B19-4661-A1F7-1D34F78DABC4}"/>
   </bookViews>
   <sheets>
     <sheet name="Generador" sheetId="1" r:id="rId1"/>
-    <sheet name="Discriminador" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja1" sheetId="3" r:id="rId2"/>
+    <sheet name="Discriminador" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="47">
   <si>
     <t>kernel</t>
   </si>
@@ -173,6 +174,9 @@
   </si>
   <si>
     <t>CT14</t>
+  </si>
+  <si>
+    <t>AVGp</t>
   </si>
 </sst>
 </file>
@@ -851,8 +855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D800E5B0-0863-4E0D-AD68-03BCAFCD14AA}">
   <dimension ref="B1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1303,7 +1307,7 @@
         <v>1</v>
       </c>
       <c r="I16" s="5">
-        <f t="shared" ref="I16:I20" si="4">G16-1</f>
+        <f t="shared" ref="I16:I19" si="4">G16-1</f>
         <v>0</v>
       </c>
       <c r="J16" s="5">
@@ -1331,7 +1335,7 @@
         <v>512</v>
       </c>
       <c r="E17" s="7">
-        <f t="shared" ref="E17:E20" si="5">L16</f>
+        <f t="shared" ref="E17:E19" si="5">L16</f>
         <v>8</v>
       </c>
       <c r="F17" s="4">
@@ -1351,11 +1355,11 @@
         <v>1</v>
       </c>
       <c r="K17" s="5">
-        <f t="shared" ref="K17:K20" si="6">F17-H17-1</f>
+        <f t="shared" ref="K17:K19" si="6">F17-H17-1</f>
         <v>2</v>
       </c>
       <c r="L17" s="6">
-        <f t="shared" ref="L17:L20" si="7">I17*(E17-1)+E17+2*K17-F17+1</f>
+        <f t="shared" ref="L17:L19" si="7">I17*(E17-1)+E17+2*K17-F17+1</f>
         <v>16</v>
       </c>
       <c r="M17" s="13"/>
@@ -1845,11 +1849,296 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E97C4FB6-97B6-4F79-9595-1AE82F1C40ED}">
+  <dimension ref="A4:K11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="4">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4">
+        <v>3</v>
+      </c>
+      <c r="D5" s="7">
+        <v>256</v>
+      </c>
+      <c r="E5" s="4">
+        <v>2</v>
+      </c>
+      <c r="F5" s="4">
+        <v>2</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5">
+        <f>F5-1</f>
+        <v>1</v>
+      </c>
+      <c r="I5" s="5">
+        <v>1</v>
+      </c>
+      <c r="J5" s="5">
+        <f>E5-G5-1</f>
+        <v>1</v>
+      </c>
+      <c r="K5" s="6">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="4">
+        <v>256</v>
+      </c>
+      <c r="C6" s="4">
+        <v>3</v>
+      </c>
+      <c r="D6" s="7">
+        <f>K5</f>
+        <v>128</v>
+      </c>
+      <c r="E6" s="4">
+        <v>4</v>
+      </c>
+      <c r="F6" s="4">
+        <v>2</v>
+      </c>
+      <c r="G6" s="4">
+        <v>1</v>
+      </c>
+      <c r="H6" s="5">
+        <f t="shared" ref="H6:H10" si="0">F6-1</f>
+        <v>1</v>
+      </c>
+      <c r="I6" s="5">
+        <v>1</v>
+      </c>
+      <c r="J6" s="5">
+        <f>E6-G6-1</f>
+        <v>2</v>
+      </c>
+      <c r="K6" s="6">
+        <f>H6*(D6-1)+D6+2*J6-E6+1</f>
+        <v>256</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="4">
+        <v>128</v>
+      </c>
+      <c r="C7" s="4">
+        <v>256</v>
+      </c>
+      <c r="D7" s="7">
+        <f t="shared" ref="D7:D10" si="1">K6</f>
+        <v>256</v>
+      </c>
+      <c r="E7" s="4">
+        <v>4</v>
+      </c>
+      <c r="F7" s="4">
+        <v>2</v>
+      </c>
+      <c r="G7" s="4">
+        <v>1</v>
+      </c>
+      <c r="H7" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I7" s="5">
+        <v>1</v>
+      </c>
+      <c r="J7" s="5">
+        <f t="shared" ref="J7:J10" si="2">E7-G7-1</f>
+        <v>2</v>
+      </c>
+      <c r="K7" s="6">
+        <f t="shared" ref="K7:K10" si="3">H7*(D7-1)+D7+2*J7-E7+1</f>
+        <v>512</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="4">
+        <v>64</v>
+      </c>
+      <c r="C8" s="4">
+        <v>128</v>
+      </c>
+      <c r="D8" s="7">
+        <f t="shared" si="1"/>
+        <v>512</v>
+      </c>
+      <c r="E8" s="4">
+        <v>4</v>
+      </c>
+      <c r="F8" s="4">
+        <v>2</v>
+      </c>
+      <c r="G8" s="4">
+        <v>1</v>
+      </c>
+      <c r="H8" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I8" s="5">
+        <v>1</v>
+      </c>
+      <c r="J8" s="5">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="K8" s="6">
+        <f t="shared" si="3"/>
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="4">
+        <v>64</v>
+      </c>
+      <c r="C9" s="4">
+        <v>64</v>
+      </c>
+      <c r="D9" s="7">
+        <f t="shared" si="1"/>
+        <v>1024</v>
+      </c>
+      <c r="E9" s="4">
+        <v>4</v>
+      </c>
+      <c r="F9" s="4">
+        <v>2</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1</v>
+      </c>
+      <c r="H9" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I9" s="5">
+        <v>1</v>
+      </c>
+      <c r="J9" s="5">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="K9" s="6">
+        <f t="shared" si="3"/>
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1">
+        <v>3</v>
+      </c>
+      <c r="C10" s="4">
+        <v>64</v>
+      </c>
+      <c r="D10" s="7">
+        <f t="shared" si="1"/>
+        <v>2048</v>
+      </c>
+      <c r="E10" s="4">
+        <v>4</v>
+      </c>
+      <c r="F10" s="4">
+        <v>2</v>
+      </c>
+      <c r="G10" s="4">
+        <v>1</v>
+      </c>
+      <c r="H10" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I10" s="5">
+        <v>1</v>
+      </c>
+      <c r="J10" s="5">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="K10" s="6">
+        <f t="shared" si="3"/>
+        <v>4096</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25A09BB2-96A0-443E-B259-F7FE44368D7A}">
   <dimension ref="A2:X56"/>
   <sheetViews>
     <sheetView topLeftCell="B15" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.7109375" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
